--- a/input/reg_wellbeing.xlsx
+++ b/input/reg_wellbeing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andy_local\SimPaths project files\SimPaths\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C836A4-D560-46B4-88FD-4C393FADE10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0E0ABAC9-582B-47C8-8A27-6E528F15610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK_DWB_MCS1" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3777,10 +3776,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>1.46610530688564</v>
+        <v>-1.23806789329217</v>
       </c>
       <c r="C2">
-        <v>1E-10</v>
+        <v>0.100317399280766</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3809,13 +3808,13 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>-0.54616405593584005</v>
+        <v>1.38780817937347</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1E-10</v>
+        <v>6.2452422154303203E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3841,7 +3840,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>0.30430017728680597</v>
+        <v>-0.49963604315453097</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3850,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1E-10</v>
+        <v>2.9542474928700799E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3873,7 +3872,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.93332479019717396</v>
+        <v>-0.51154713626928605</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3885,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1E-10</v>
+        <v>3.40532914727543E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3905,7 +3904,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>4.9264655580874103E-2</v>
+        <v>-0.78101737192389997</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3920,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1E-10</v>
+        <v>4.2664867152636801E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3937,7 +3936,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>0.58879360748571996</v>
+        <v>-1.0503607552260401</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3955,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1E-10</v>
+        <v>4.4191386752414699E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3969,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>4.5693205055022001E-2</v>
+        <v>4.5693204959426303E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3990,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.14099605846439E-2</v>
+        <v>1.1409961826623899E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4001,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-14.500967249761599</v>
+        <v>-5.7247904366527297E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4025,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1E-10</v>
+        <v>8.12906050160302E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4079,10 +4078,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.50201078560985701</v>
+        <v>-1.3489837784547301</v>
       </c>
       <c r="C2">
-        <v>1E-10</v>
+        <v>0.17928898418012101</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4111,13 +4110,13 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>-0.27502378523858301</v>
+        <v>0.98956760678125599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1E-10</v>
+        <v>8.2726005601726105E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4143,7 +4142,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-1.9984110008073801</v>
+        <v>-1.43604891505004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4152,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1E-10</v>
+        <v>0.100404428441737</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4175,7 +4174,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-1.65024943404916</v>
+        <v>-0.47926807711235803</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4187,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1E-10</v>
+        <v>4.9184064925410401E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4207,7 +4206,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.57590488064377499</v>
+        <v>-0.80900137986986498</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4222,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1E-10</v>
+        <v>6.0931848179205599E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4239,7 +4238,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-1.1478840553013301</v>
+        <v>-1.15688027451275</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4257,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1E-10</v>
+        <v>7.4210585629514506E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4271,7 +4270,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>4.8550405632290898E-2</v>
+        <v>4.85504102712042E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4292,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.1182641008133499E-2</v>
+        <v>1.11826572333184E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4303,7 +4302,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>40.472379586054302</v>
+        <v>-0.114053804257953</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4327,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1E-10</v>
+        <v>9.0062602331598893E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7627,10 +7626,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.17537518561988</v>
+        <v>0.138867401324514</v>
       </c>
       <c r="C2">
-        <v>5.7925677603713498E-2</v>
+        <v>5.9835053773966598E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7659,13 +7658,13 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.75253370169607103</v>
+        <v>0.76773466344977703</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.166264851307E-2</v>
+        <v>4.3234095266133601E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7691,7 +7690,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.524935622787151</v>
+        <v>-0.444053796232038</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7700,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.3872820246506801E-2</v>
+        <v>2.4933085982321499E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7723,7 +7722,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.308598838408433</v>
+        <v>-0.53680560242889996</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7735,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.4221539679088602E-2</v>
+        <v>3.1293859954548101E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7755,7 +7754,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.54718036472531295</v>
+        <v>-0.626136313856266</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7770,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.2406826677855299E-2</v>
+        <v>4.5297832724010799E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7787,7 +7786,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-6.6083055773004003E-3</v>
+        <v>-0.27959805032469298</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7805,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.3948986764454299E-2</v>
+        <v>4.5463153788865E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -7819,7 +7818,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>-0.148313221993462</v>
+        <v>-0.12219813346464201</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7840,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.6829125693774801E-3</v>
+        <v>1.09087261565764E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -7851,7 +7850,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.14590444014286499</v>
+        <v>0.122167871893469</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7875,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.1682448728327798E-3</v>
+        <v>7.1106471538351403E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7929,10 +7928,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>1.0597323280967701</v>
+        <v>1.13375308945563</v>
       </c>
       <c r="C2">
-        <v>0.10279114237438999</v>
+        <v>0.108453698235043</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7961,13 +7960,13 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>-0.31414926650796299</v>
+        <v>-0.12216290847771701</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.37474349601444E-2</v>
+        <v>6.7465493336152996E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7993,7 +7992,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.46136759673403699</v>
+        <v>-0.25508933358576602</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8002,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.8316961492637093E-2</v>
+        <v>7.1338870659180403E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8025,7 +8024,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.29437916414585302</v>
+        <v>-0.74865421560811196</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8037,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.3252826701507601E-2</v>
+        <v>4.3817315585549403E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8057,7 +8056,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.83061718223158698</v>
+        <v>-1.19885571142589</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8072,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.4680221224423403E-2</v>
+        <v>6.1501350904321697E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8089,7 +8088,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-0.62829465700113396</v>
+        <v>-1.1583925593992901</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8107,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.8593479638446797E-2</v>
+        <v>6.3807604004587903E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8121,7 +8120,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>-0.18131337336190101</v>
+        <v>-0.102258528057334</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8142,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.3739438899775898E-3</v>
+        <v>8.5802608911340703E-3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -8153,7 +8152,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.14554565513922399</v>
+        <v>8.6042401206758198E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8177,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.5329594017559996E-3</v>
+        <v>7.136880693175E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8190,9 +8189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8310,97 +8307,97 @@
       <c r="C2">
         <v>1.15443018242599E-3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>-3.6338793704871802E-5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.1610394063762801E-5</v>
       </c>
       <c r="F2">
         <v>-1.29443636371082E-4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>-3.7930607429616098E-5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>-9.7171189420095808E-6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>1.0196038580902901E-5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>-9.3983524100863102E-5</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>-8.9759431925122803E-5</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>-8.62666663536098E-5</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>-8.7880665071102105E-5</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>-9.2061163920346804E-5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>-9.0055641470969093E-5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>-9.1288487232518597E-5</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>-8.8594079311539499E-5</v>
       </c>
       <c r="R2">
         <v>-1.07333841889296E-4</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>-6.9579203239641905E-5</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>-9.1314718298997905E-5</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>-2.9037644817174699E-5</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>-2.81844656614305E-5</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>-3.3685963703339697E-5</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2">
         <v>-3.2512597509384699E-5</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2">
         <v>-8.4598490233644903E-5</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2">
         <v>-1.73709970442144E-5</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2">
         <v>-3.8189119921139703E-6</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2">
         <v>-3.5238485772173901E-6</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2">
         <v>-1.33011555386384E-5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2">
         <v>-1.96775432413644E-5</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2">
         <v>1.8052062436882299E-7</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2">
         <v>-1.72662589362581E-5</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2">
         <v>-4.22686987063824E-5</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2">
         <v>-4.9277747548168296E-6</v>
       </c>
     </row>
@@ -8411,100 +8408,100 @@
       <c r="B3">
         <v>-9.0621598967365796E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>-3.6338793704875102E-5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>2.6912770080176499E-5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1.563158494799E-6</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>4.5827527126644101E-6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2.06903743598272E-6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>-2.2397905513039898E-6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>2.6075921606198902E-7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-2.5413852127570502E-6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>-3.5304062986745799E-6</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>-1.68492493274075E-6</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>-2.5384923320722498E-6</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>-2.5836372223503098E-6</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>-1.3089828735861101E-6</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>-1.7854741961756201E-6</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>-1.6993760017236E-6</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>9.2820630913652594E-8</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>-4.9683183660835601E-6</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>-3.7146247440961399E-6</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>1.55637737446758E-7</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>5.1834131926574202E-7</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>3.2988049147191999E-6</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3">
         <v>5.7183983725477497E-6</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>-2.27561353825875E-6</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3">
         <v>3.81170181559197E-7</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3">
         <v>-2.6493450016881799E-8</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3">
         <v>-1.24768538244976E-8</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3">
         <v>1.3543574362071801E-6</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3">
         <v>6.7269309566256905E-7</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3">
         <v>-8.1821987490099506E-9</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3">
         <v>-3.0613888178357999E-7</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3">
         <v>1.2156768071362999E-7</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3">
         <v>2.4678602856380201E-7</v>
       </c>
     </row>
@@ -8515,100 +8512,100 @@
       <c r="B4">
         <v>0.18421626261504201</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1.16103940637606E-5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1.5631584947990499E-6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>4.1277231925814197E-5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>-5.12715702470855E-7</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>5.0393083610319902E-6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>-9.8505840123620793E-7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>-4.0311376043317699E-7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>-7.6131922476443699E-6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>-9.1246265126954296E-6</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>-7.4789798121516298E-6</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>-9.3697276841372002E-6</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>-8.2018630236745597E-6</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>-7.9148272913659708E-6</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>-7.1433982331978804E-6</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>-7.6614302105087103E-6</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4">
         <v>-1.4087589743919E-5</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>-8.2858471572238092E-6</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>-9.7284128504680396E-6</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>-5.2079821452460502E-7</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4">
         <v>-3.2417675457386101E-6</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>-6.7321130954106501E-6</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4">
         <v>-7.5380397167327099E-6</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4">
         <v>8.6689939040293508E-6</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4">
         <v>-1.2753266489156E-6</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4">
         <v>-1.5315104106131101E-7</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4">
         <v>-7.6753348982893595E-8</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <v>-2.41753180251533E-7</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4">
         <v>-3.32857126694965E-7</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4">
         <v>5.4498268729306499E-10</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4">
         <v>1.55142668650064E-6</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4">
         <v>6.1187081179091299E-6</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4">
         <v>-6.5780876088898396E-8</v>
       </c>
     </row>
@@ -8622,97 +8619,97 @@
       <c r="C5">
         <v>-1.2944363637108099E-4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>4.5827527126642203E-6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>-5.1271570247099296E-7</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>7.0243134242339099E-5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>7.1403799687815196E-6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>-5.5193620945947001E-6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>3.1523646277633702E-7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>6.5397383420879701E-6</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>4.3244579846094503E-6</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>4.9629184022169802E-6</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>5.86473017801804E-6</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>4.2771786320935098E-6</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>4.4173082778196004E-6</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>6.5155841316254899E-6</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>6.6099627528979903E-6</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>1.18473264378388E-5</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>6.8132099628248904E-6</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>1.4652996590765101E-6</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>1.8137803213211E-6</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>3.52940938938346E-6</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>5.37687114559088E-6</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>4.9845341120992599E-6</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>-6.3514738635939198E-6</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>1.32695611478555E-6</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>-3.0073785949351903E-8</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>-4.98155830276123E-9</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>1.17827980122608E-6</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5">
         <v>4.0132334670237799E-6</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5">
         <v>-3.3557639796476101E-8</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5">
         <v>-2.8169617767973902E-6</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5">
         <v>-2.42700115458913E-6</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5">
         <v>-3.9446657144982999E-7</v>
       </c>
     </row>
@@ -8723,100 +8720,100 @@
       <c r="B6">
         <v>-0.23196525648809899</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>-3.7930607429616898E-5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>2.0690374359827098E-6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>5.0393083610319098E-6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>7.1403799687816103E-6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>5.6205726251503998E-5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>3.2937797333370902E-7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>-2.89409837900665E-7</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>-1.7062383600212401E-6</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>-3.3897933642727999E-6</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>-1.1591753988037E-6</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>-3.04641078896239E-7</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>-1.2901886924135101E-6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>9.5880340917789896E-8</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>-6.67245475080157E-7</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>1.3086754455768E-7</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6">
         <v>1.88505306735162E-6</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6">
         <v>-3.0105018512749099E-6</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>-2.9303776451734601E-6</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6">
         <v>1.7135407822608901E-6</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6">
         <v>2.73241994090207E-6</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>3.3921374011223299E-6</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6">
         <v>4.2635580827239899E-6</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6">
         <v>6.6558865529417196E-7</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6">
         <v>1.3616532789735E-6</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6">
         <v>4.0623801854048703E-8</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6">
         <v>6.5134155412340998E-8</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6">
         <v>4.6076435741177304E-6</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6">
         <v>7.7648657728243997E-7</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6">
         <v>-1.09714051319058E-8</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6">
         <v>-7.4601886333476802E-7</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6">
         <v>-1.27741197996896E-7</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6">
         <v>7.2184138280628094E-8</v>
       </c>
     </row>
@@ -8827,100 +8824,100 @@
       <c r="B7">
         <v>-2.1082895638212799E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>-9.7171189420104702E-6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>-2.2397905513039602E-6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>-9.8505840123624393E-7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>-5.5193620945945798E-6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>3.2937797333371998E-7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>4.22845800201791E-5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>-6.0184544400771403E-7</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>1.6862663493957599E-6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>1.6909616650351499E-6</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>3.7266104699218299E-7</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>1.51796458160535E-6</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>1.0532661825950001E-6</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>6.0906883898980401E-7</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>8.3902103966666503E-7</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>2.1787106141092598E-6</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>1.8359572518266099E-7</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>3.9096365815669203E-7</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>7.7641147486520297E-7</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>1.9119357045280799E-6</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>2.3304729210751601E-6</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>2.1908891926080899E-6</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7">
         <v>3.6715436304662899E-6</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7">
         <v>1.29959904636893E-6</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7">
         <v>-2.67164219830651E-8</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>8.4200668757587606E-8</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>9.53075139470027E-9</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>-2.2475945467117599E-6</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7">
         <v>1.8948794793306399E-7</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7">
         <v>-5.74678213837389E-10</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7">
         <v>-1.8611785519780099E-6</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7">
         <v>-1.06237228425937E-6</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7">
         <v>-1.9765901244502201E-7</v>
       </c>
     </row>
@@ -8931,100 +8928,100 @@
       <c r="B8">
         <v>7.2306380120539498E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>1.01960385809121E-5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>2.60759216061795E-7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>-4.0311376043314898E-7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>3.1523646277564198E-7</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>-2.89409837900811E-7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>-6.0184544400779101E-7</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>1.00399837778238E-5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>1.01150926749674E-7</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>-3.2543181931188098E-7</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>1.4388556234264401E-7</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>2.7220155565503497E-7</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>-2.4006327607973901E-7</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>3.0913663489759101E-7</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>1.5049231213675399E-7</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>-6.1134355633522303E-7</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8">
         <v>-3.0359812881224899E-7</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8">
         <v>-6.0126038622077199E-7</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
         <v>-5.1886427744427199E-7</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8">
         <v>-1.5478603029825401E-7</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8">
         <v>-1.70667246655432E-7</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>-3.8014964112189899E-7</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8">
         <v>-7.7550882044080605E-7</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8">
         <v>-6.8917567189672599E-7</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8">
         <v>-3.5210087894048402E-7</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8">
         <v>-3.44762437274129E-7</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8">
         <v>-6.5725848535966004E-7</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8">
         <v>8.5911323567142904E-7</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8">
         <v>2.0422650352165701E-7</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8">
         <v>-1.72871722428698E-9</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8">
         <v>1.62320344229271E-6</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8">
         <v>1.4279903044977201E-6</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8">
         <v>5.4735423894817602E-8</v>
       </c>
     </row>
@@ -9035,100 +9032,100 @@
       <c r="B9">
         <v>8.5900408472168399E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>-9.3983524100868307E-5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>-2.5413852127569799E-6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>-7.6131922476444402E-6</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>6.5397383420881403E-6</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>-1.70623836002117E-6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>1.6862663493957099E-6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1.01150926749814E-7</v>
       </c>
       <c r="J9">
         <v>2.0995262440465099E-4</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>8.0459300679759597E-5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>8.0327761801132205E-5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>8.0828333002838594E-5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>8.0024253747886003E-5</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>7.8700942744264099E-5</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>7.9007530263149102E-5</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>8.0256055559035398E-5</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>8.1703519344679106E-5</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>8.0539569366559999E-5</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>8.0248598867583705E-5</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>3.0941263532374901E-7</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9">
         <v>2.1401754218411901E-6</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>2.8990727225676002E-7</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9">
         <v>4.97614361694756E-6</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9">
         <v>-1.9072622093578801E-6</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9">
         <v>8.5097611780451397E-7</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9">
         <v>2.05443624169119E-7</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>2.0222097889880399E-9</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>1.84357725908089E-6</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9">
         <v>6.4340084340767404E-7</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9">
         <v>-6.09559733368591E-9</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9">
         <v>-1.15453402619904E-5</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9">
         <v>-8.0959748034468195E-6</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9">
         <v>-2.9529291982246602E-7</v>
       </c>
     </row>
@@ -9139,100 +9136,100 @@
       <c r="B10">
         <v>5.8025757188107201E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>-8.9759431925127398E-5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>-3.5304062986745799E-6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>-9.1246265126954398E-6</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>4.3244579846095799E-6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>-3.38979336427273E-6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>1.6909616650351101E-6</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>-3.2543181931160998E-7</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>8.0459300679759597E-5</v>
       </c>
       <c r="K10">
         <v>1.2919768511500301E-4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>7.9874790688102301E-5</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>8.0636969125915197E-5</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>8.0267679724866205E-5</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>7.8556153156340906E-5</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>7.8834648535627298E-5</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>7.9933236886417297E-5</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10">
         <v>8.1592913869051099E-5</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10">
         <v>8.0473398296197199E-5</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>8.0232590295100398E-5</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>1.2697869143986701E-6</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10">
         <v>1.6239251967474701E-6</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>-7.7220702900102001E-8</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10">
         <v>4.7956324698303204E-6</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10">
         <v>1.7903189992775299E-6</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10">
         <v>5.4205293929117202E-8</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10">
         <v>2.30788430008999E-7</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10">
         <v>5.0720480726370802E-8</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10">
         <v>2.2725921120124698E-6</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10">
         <v>4.6549700271329E-7</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10">
         <v>-4.28331047501046E-9</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10">
         <v>-9.7920859482776804E-6</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10">
         <v>-6.8960923930998802E-6</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10">
         <v>-9.9060284980097005E-8</v>
       </c>
     </row>
@@ -9243,100 +9240,100 @@
       <c r="B11">
         <v>5.62992436225353E-2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>-8.6266666353613296E-5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>-1.6849249327407599E-6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>-7.4789798121516798E-6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>4.9629184022168498E-6</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>-1.15917539880366E-6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>3.7266104699211999E-7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>1.43885562342845E-7</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>8.0327761801132205E-5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>7.9874790688102301E-5</v>
       </c>
       <c r="L11">
         <v>1.6557049670321499E-4</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>8.02829892986442E-5</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>7.9768539223061302E-5</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>7.8411033133583895E-5</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>7.85120774046928E-5</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <v>7.9720705339918202E-5</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11">
         <v>8.1052718242383099E-5</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11">
         <v>7.9770665991194298E-5</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
         <v>7.9476727241705098E-5</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11">
         <v>1.3348168995257501E-6</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11">
         <v>2.28379381759333E-6</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11">
         <v>1.30703471240715E-9</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11">
         <v>5.0992576173496098E-6</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11">
         <v>4.52584507466689E-6</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11">
         <v>-1.6825052371372299E-7</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11">
         <v>1.71046405839809E-7</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11">
         <v>2.9050486665825599E-8</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11">
         <v>1.44953148851187E-6</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11">
         <v>3.3029645320147201E-7</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11">
         <v>-3.4683121771565102E-9</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11">
         <v>-7.24987630312057E-6</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11">
         <v>-6.4757027128713599E-6</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11">
         <v>-6.1534999529330898E-8</v>
       </c>
     </row>
@@ -9347,100 +9344,100 @@
       <c r="B12">
         <v>7.0715886588245E-2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>-8.7880665071108502E-5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>-2.5384923320721101E-6</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>-9.3697276841372493E-6</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>5.8647301780183102E-6</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>-3.0464107889610601E-7</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>1.51796458160533E-6</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>2.7220155565518501E-7</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>8.0828333002838594E-5</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>8.0636969125915306E-5</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>8.0282989298644295E-5</v>
       </c>
       <c r="M12">
         <v>1.5133237940099199E-4</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>8.0456655026142705E-5</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>7.8838414764730095E-5</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <v>7.9118378654693304E-5</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <v>8.0206218366889103E-5</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12">
         <v>8.2278269245222404E-5</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12">
         <v>8.0594134070077598E-5</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12">
         <v>8.02114118608175E-5</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12">
         <v>3.1186157701274898E-6</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12">
         <v>2.1594653638193198E-6</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12">
         <v>1.1881877380101101E-6</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12">
         <v>6.0992702031014896E-6</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12">
         <v>3.4170804279696199E-6</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12">
         <v>3.0648672805612999E-7</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12">
         <v>1.9418246432197401E-7</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12">
         <v>2.0566681849000601E-8</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12">
         <v>2.0294474832278099E-6</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12">
         <v>3.9426027570873298E-7</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12">
         <v>-3.53354871846773E-9</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12">
         <v>-1.08843669288731E-5</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12">
         <v>-7.5372968837001799E-6</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12">
         <v>-2.5297241829426502E-7</v>
       </c>
     </row>
@@ -9451,100 +9448,100 @@
       <c r="B13">
         <v>3.7056303847155699E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>-9.2061163920352401E-5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>-2.58363722235022E-6</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>-8.2018630236746207E-6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>4.2771786320936097E-6</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>-1.2901886924134201E-6</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1.05326618259497E-6</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>-2.40063276079583E-7</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>8.0024253747886003E-5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>8.0267679724866205E-5</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>7.9768539223061302E-5</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>8.0456655026142596E-5</v>
       </c>
       <c r="N13">
         <v>1.41560885034077E-4</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>7.8296949835694903E-5</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>7.8521233475504096E-5</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>7.96644651871435E-5</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13">
         <v>8.1595738322832296E-5</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13">
         <v>8.0022124216712505E-5</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>7.9996236862617395E-5</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13">
         <v>2.9599305409246602E-6</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13">
         <v>2.7206582487738402E-6</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
         <v>1.2189636008935101E-6</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13">
         <v>5.6575881588320797E-6</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13">
         <v>1.80699845507231E-6</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13">
         <v>5.5327869532053502E-7</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13">
         <v>2.48145356193633E-7</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13">
         <v>2.47923901527595E-8</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13">
         <v>1.6312174618831399E-6</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13">
         <v>4.5793975568174399E-7</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13">
         <v>-4.0186767375603102E-9</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13">
         <v>-9.7415578457558493E-6</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13">
         <v>-7.9010949597432592E-6</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13">
         <v>-2.6561260173068902E-7</v>
       </c>
     </row>
@@ -9555,100 +9552,100 @@
       <c r="B14">
         <v>7.9065768485225299E-2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>-9.00556414709724E-5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>-1.30898287358608E-6</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>-7.9148272913659792E-6</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>4.4173082778196402E-6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>9.5880340917876002E-8</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>6.0906883898977204E-7</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>3.0913663489779001E-7</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>7.8700942744264004E-5</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>7.8556153156340798E-5</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>7.84110331335838E-5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>7.883841476473E-5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>7.8296949835694794E-5</v>
       </c>
       <c r="O14">
         <v>1.3024072153546701E-4</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>7.7439796981758504E-5</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>7.8571372519535703E-5</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>8.0081864347199901E-5</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14">
         <v>7.9008630279884599E-5</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
         <v>7.7954948059519595E-5</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14">
         <v>8.5046575189965795E-7</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14">
         <v>4.8805021767047102E-7</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14">
         <v>-5.6908430176015404E-7</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14">
         <v>3.1064005492063501E-6</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14">
         <v>1.4129653463284799E-6</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14">
         <v>8.5282165698524597E-7</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14">
         <v>1.77463061726809E-7</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14">
         <v>-5.3772895194173003E-8</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14">
         <v>2.45844778011718E-6</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14">
         <v>5.2456519386767003E-7</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14">
         <v>-5.8232901875405003E-9</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14">
         <v>-8.1818551630872601E-6</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14">
         <v>-5.5966310587327298E-6</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14">
         <v>1.75939406341646E-8</v>
       </c>
     </row>
@@ -9659,100 +9656,100 @@
       <c r="B15">
         <v>5.3999234322346601E-2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>-9.1288487232525306E-5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>-1.7854741961755E-6</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>-7.1433982331979498E-6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>6.5155841316257601E-6</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>-6.6724547508003799E-7</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>8.39021039666652E-7</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>1.5049231213690701E-7</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>7.9007530263148994E-5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>7.8834648535627298E-5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>7.85120774046928E-5</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>7.9118378654693304E-5</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>7.8521233475504096E-5</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>7.7439796981758599E-5</v>
       </c>
       <c r="P15">
         <v>1.13230471127666E-4</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>7.8901150755076902E-5</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15">
         <v>8.0309820450449393E-5</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15">
         <v>7.9225609493042097E-5</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>7.8020187219325995E-5</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15">
         <v>1.95641021468308E-6</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15">
         <v>1.40047829885853E-6</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15">
         <v>-2.8124530186866401E-7</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15">
         <v>2.78535986253338E-6</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15">
         <v>2.7367678771019701E-6</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15">
         <v>5.1646189211497603E-7</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15">
         <v>1.7150624808123501E-7</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15">
         <v>-2.7063262812256802E-8</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15">
         <v>2.0478927421660901E-6</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15">
         <v>6.1582924372150805E-7</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15">
         <v>-6.3850163278165297E-9</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15">
         <v>-8.3198102291943306E-6</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15">
         <v>-5.4381127988072001E-6</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15">
         <v>-8.15533656720696E-8</v>
       </c>
     </row>
@@ -9763,100 +9760,100 @@
       <c r="B16">
         <v>8.1907548252334303E-2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>-8.8594079311545096E-5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>-1.6993760017235801E-6</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>-7.6614302105087595E-6</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>6.6099627528981597E-6</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>1.3086754455773601E-7</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>2.1787106141092399E-6</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>-6.1134355633512499E-7</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>8.0256055559035398E-5</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>7.9933236886417405E-5</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>7.9720705339918094E-5</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>8.0206218366888994E-5</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>7.96644651871435E-5</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>7.8571372519535703E-5</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <v>7.8901150755076793E-5</v>
       </c>
       <c r="Q16">
         <v>1.30006505174134E-4</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16">
         <v>8.1575742217786801E-5</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16">
         <v>8.0497276619513603E-5</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16">
         <v>7.9199705063451902E-5</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16">
         <v>1.2866104880615501E-6</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16">
         <v>8.3227341628410097E-7</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16">
         <v>1.14580000232562E-7</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16">
         <v>5.1156473295267002E-6</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16">
         <v>1.45060767796938E-6</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16">
         <v>3.9427841213728399E-7</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16">
         <v>1.7925189514406999E-7</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16">
         <v>1.8183993542164899E-8</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16">
         <v>1.80404834086165E-6</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16">
         <v>5.8475606771126805E-7</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AE16">
         <v>-5.7978345639516503E-9</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16">
         <v>-9.6405349722300496E-6</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AG16">
         <v>-5.5200756343762904E-6</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16">
         <v>-2.7506839597320802E-7</v>
       </c>
     </row>
@@ -9870,97 +9867,97 @@
       <c r="C17">
         <v>-1.07333841889307E-4</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>9.2820630913851104E-8</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>-1.4087589743919E-5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>1.18473264378395E-5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>1.8850530673518999E-6</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>1.83595725182708E-7</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>-3.0359812881213702E-7</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>8.1703519344679295E-5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>8.1592913869051398E-5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>8.1052718242383303E-5</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>8.2278269245222499E-5</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>8.1595738322832499E-5</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>8.0081864347200104E-5</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>8.0309820450449597E-5</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <v>8.1575742217786896E-5</v>
       </c>
       <c r="R17">
         <v>2.2350391652449199E-4</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17">
         <v>8.1375173588630204E-5</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17">
         <v>8.1222459358221494E-5</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17">
         <v>-8.5334130477922897E-7</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17">
         <v>-5.1555110045601602E-7</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17">
         <v>3.7311929853401699E-6</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17">
         <v>5.7794602811864901E-6</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17">
         <v>1.21975203331126E-6</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17">
         <v>8.93009389853614E-7</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17">
         <v>1.0976898466318E-7</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17">
         <v>7.8710069600486704E-8</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17">
         <v>4.69129284159855E-6</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17">
         <v>9.0524756012956203E-7</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17">
         <v>-8.5645655317793193E-9</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17">
         <v>-7.7864843444338307E-6</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17">
         <v>-9.2605270155937692E-6</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17">
         <v>1.51972853559985E-7</v>
       </c>
     </row>
@@ -9971,100 +9968,100 @@
       <c r="B18">
         <v>3.3468866219702097E-2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>-6.9579203239647299E-5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>-4.9683183660835499E-6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>-8.2858471572239108E-6</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>6.8132099628251801E-6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>-3.0105018512748299E-6</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>3.90963658156715E-7</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>-6.0126038622052201E-7</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>8.0539569366559999E-5</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>8.0473398296197199E-5</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>7.9770665991194298E-5</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>8.0594134070077598E-5</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>8.00221242167126E-5</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>7.9008630279884693E-5</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18">
         <v>7.9225609493042206E-5</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18">
         <v>8.0497276619513603E-5</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18">
         <v>8.1375173588630001E-5</v>
       </c>
       <c r="S18">
         <v>1.7391928166693199E-4</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18">
         <v>8.0150020555320897E-5</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18">
         <v>8.8769762489333203E-7</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18">
         <v>1.70871592017473E-6</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18">
         <v>-2.0915222621478499E-7</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18">
         <v>4.0898248483051103E-6</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18">
         <v>-1.02070539598228E-5</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18">
         <v>-1.2357882329084699E-6</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18">
         <v>6.8340258938994002E-8</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18">
         <v>-3.4249139208798901E-8</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18">
         <v>3.17346593316739E-6</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18">
         <v>4.3959551857274101E-7</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18">
         <v>-4.6000005859243299E-9</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18">
         <v>-8.7811375477691098E-6</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AG18">
         <v>-3.3886225885090099E-6</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18">
         <v>-6.8918506693187602E-8</v>
       </c>
     </row>
@@ -10075,100 +10072,100 @@
       <c r="B19">
         <v>0.186023440457114</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>-9.13147182990046E-5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>-3.7146247440960598E-6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>-9.7284128504680701E-6</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>1.4652996590768601E-6</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>-2.9303776451733199E-6</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>7.7641147486518698E-7</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>-5.1886427744414398E-7</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>8.0248598867583705E-5</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>8.0232590295100398E-5</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>7.9476727241705003E-5</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>8.0211411860817405E-5</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>7.99962368626173E-5</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>7.7954948059519703E-5</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19">
         <v>7.80201872193259E-5</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
         <v>7.9199705063451902E-5</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19">
         <v>8.1222459358221304E-5</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19">
         <v>8.0150020555320897E-5</v>
       </c>
       <c r="T19">
         <v>2.06432378032784E-4</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19">
         <v>1.9353607080333002E-6</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19">
         <v>1.46366963905256E-6</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19">
         <v>8.5820377891058005E-7</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19">
         <v>5.8737150244679599E-6</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19">
         <v>-4.8196540236660504E-6</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19">
         <v>6.7395065319854003E-7</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19">
         <v>2.1846084260120101E-7</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19">
         <v>9.5855420369599804E-8</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19">
         <v>1.5898395581140999E-6</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19">
         <v>3.7433409006446599E-7</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19">
         <v>-2.89182853112648E-9</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19">
         <v>-9.3880121226135401E-6</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19">
         <v>-1.1017700838551299E-5</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19">
         <v>-8.9374874272991503E-8</v>
       </c>
     </row>
@@ -10179,100 +10176,100 @@
       <c r="B20">
         <v>2.4294148366088401E-2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>-2.90376448171756E-5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>1.5563773744671099E-7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>-5.20798214524619E-7</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>1.81378032132105E-6</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>1.7135407822608799E-6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>1.9119357045280499E-6</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>-1.5478603029807801E-7</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>3.0941263532367997E-7</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>1.26978691439865E-6</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>1.3348168995256899E-6</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>3.1186157701274199E-6</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>2.9599305409245801E-6</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>8.5046575189964302E-7</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
         <v>1.95641021468303E-6</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
         <v>1.2866104880614999E-6</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20">
         <v>-8.5334130477941003E-7</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20">
         <v>8.8769762489327104E-7</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20">
         <v>1.9353607080332299E-6</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20">
         <v>4.9575386405281801E-5</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20">
         <v>3.0770538359475501E-5</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20">
         <v>3.0561227387182299E-5</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20">
         <v>3.0943359246053002E-5</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20">
         <v>3.3573845031211101E-6</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20">
         <v>-1.61774402668685E-7</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20">
         <v>7.51295370139379E-8</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20">
         <v>-3.3119191116340397E-8</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC20">
         <v>-4.0187920583020799E-7</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20">
         <v>-1.6481930053748902E-8</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20">
         <v>2.5929136836030902E-10</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20">
         <v>-1.35870913122315E-6</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AG20">
         <v>1.7505824442592E-6</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20">
         <v>-2.1146652760150401E-7</v>
       </c>
     </row>
@@ -10283,100 +10280,100 @@
       <c r="B21">
         <v>3.5145373950415601E-2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>-2.8184465661434098E-5</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>5.1834131926584705E-7</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>-3.24176754573863E-6</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>3.5294093893837399E-6</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>2.73241994090215E-6</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>2.3304729210751999E-6</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>-1.7066724665532101E-7</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>2.1401754218412502E-6</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>1.62392519674758E-6</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>2.2837938175933999E-6</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>2.1594653638193998E-6</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>2.7206582487738999E-6</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>4.8805021767059596E-7</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
         <v>1.40047829885862E-6</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
         <v>8.3227341628417096E-7</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21">
         <v>-5.1555110045602904E-7</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21">
         <v>1.70871592017477E-6</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21">
         <v>1.46366963905265E-6</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21">
         <v>3.0770538359475603E-5</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21">
         <v>5.1630154039055801E-5</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21">
         <v>3.3726638753782799E-5</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21">
         <v>3.3821740672404601E-5</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21">
         <v>6.0724021284312403E-6</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21">
         <v>-3.6195823036249101E-8</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21">
         <v>6.8557064786740904E-9</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21">
         <v>-6.2982182371764203E-8</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21">
         <v>2.15779136034974E-7</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21">
         <v>5.8615981353279897E-8</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21">
         <v>-3.6054520479294801E-10</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21">
         <v>-6.7742584410730003E-7</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21">
         <v>3.6500168200428E-6</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21">
         <v>-2.1193024614442699E-7</v>
       </c>
     </row>
@@ -10387,100 +10384,100 @@
       <c r="B22">
         <v>4.6114123975452101E-2</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>-3.3685963703343499E-5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>3.2988049147192901E-6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>-6.7321130954106399E-6</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>5.3768711455909901E-6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>3.39213740112239E-6</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>2.1908891926080899E-6</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>-3.80149641121937E-7</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>2.8990727225680301E-7</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>-7.7220702900009397E-8</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>1.3070347124320099E-9</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>1.18818773801017E-6</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>1.21896360089353E-6</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>-5.6908430176002498E-7</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22">
         <v>-2.8124530186861101E-7</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22">
         <v>1.1458000023262201E-7</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22">
         <v>3.7311929853401602E-6</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22">
         <v>-2.0915222621476001E-7</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22">
         <v>8.5820377891065596E-7</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22">
         <v>3.0561227387182401E-5</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22">
         <v>3.3726638753782799E-5</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22">
         <v>5.6790827463980599E-5</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22">
         <v>3.7883935852157199E-5</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22">
         <v>4.92551472345662E-6</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22">
         <v>4.7473035696478301E-7</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22">
         <v>9.2826095008600403E-9</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22">
         <v>-1.0527572201418E-7</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22">
         <v>8.6611408308523497E-8</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22">
         <v>1.39998699781325E-7</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22">
         <v>-1.24534649832208E-9</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22">
         <v>1.1110256046560001E-6</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22">
         <v>6.50301842886552E-6</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22">
         <v>-7.7047851803442506E-8</v>
       </c>
     </row>
@@ -10491,100 +10488,100 @@
       <c r="B23">
         <v>9.2250485123994697E-2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>-3.2512597509388501E-5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>5.7183983725477904E-6</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>-7.5380397167327701E-6</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>4.9845341120996301E-6</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>4.2635580827240704E-6</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>3.6715436304663302E-6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>-7.7550882044055597E-7</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>4.9761436169476498E-6</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>4.7956324698304203E-6</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>5.0992576173496496E-6</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>6.0992702031015404E-6</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>5.6575881588321102E-6</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23">
         <v>3.1064005492065098E-6</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>2.7853598625334901E-6</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <v>5.1156473295268001E-6</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23">
         <v>5.7794602811865003E-6</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23">
         <v>4.0898248483051399E-6</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
         <v>5.8737150244680404E-6</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23">
         <v>3.0943359246053002E-5</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23">
         <v>3.3821740672404601E-5</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23">
         <v>3.7883935852157097E-5</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23">
         <v>5.71257612098322E-5</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23">
         <v>4.4747137532276104E-6</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23">
         <v>-1.8354944951392701E-7</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23">
         <v>-6.6411036923704E-9</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23">
         <v>-1.2318623632217E-7</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23">
         <v>-9.6726758566295604E-7</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23">
         <v>1.27379290570324E-7</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23">
         <v>-1.46295495020261E-9</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23">
         <v>3.0444644991070801E-6</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23">
         <v>9.4736197896055997E-6</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23">
         <v>-1.2572114713105301E-7</v>
       </c>
     </row>
@@ -10595,100 +10592,100 @@
       <c r="B24">
         <v>-0.126888541570984</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>-8.4598490233644402E-5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>-2.2756135382592798E-6</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>8.6689939040292796E-6</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>-6.3514738635952497E-6</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>6.6558865529382499E-7</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>1.2995990463687401E-6</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>-6.8917567189639205E-7</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>-1.9072622093585399E-6</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>1.7903189992771401E-6</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>4.5258450746662098E-6</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>3.4170804279691202E-6</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>1.80699845507168E-6</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24">
         <v>1.4129653463281299E-6</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24">
         <v>2.7367678771014001E-6</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
         <v>1.4506076779687699E-6</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24">
         <v>1.2197520333105E-6</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24">
         <v>-1.02070539598233E-5</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24">
         <v>-4.8196540236664696E-6</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24">
         <v>3.35738450312103E-6</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24">
         <v>6.0724021284310396E-6</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24">
         <v>4.9255147234561796E-6</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24">
         <v>4.4747137532276104E-6</v>
       </c>
       <c r="Y24">
         <v>2.93804425355124E-4</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24">
         <v>1.8587306084183499E-6</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24">
         <v>6.9342077979106397E-7</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24">
         <v>1.12073656615773E-6</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24">
         <v>-3.62544419630851E-6</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24">
         <v>-1.3473289212675599E-6</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24">
         <v>1.43539732016346E-8</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24">
         <v>-2.1168327388318302E-6</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24">
         <v>2.33849750548095E-7</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24">
         <v>1.9354481235019499E-8</v>
       </c>
     </row>
@@ -10699,100 +10696,100 @@
       <c r="B25">
         <v>0.238121572411092</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-1.7370997044212801E-5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>3.8117018155921802E-7</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>-1.2753266489156299E-6</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>1.32695611478555E-6</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>1.3616532789735099E-6</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>-2.67164219830856E-8</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>-3.52100878940453E-7</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>8.5097611780452604E-7</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>5.4205293929075697E-8</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>-1.6825052371368101E-7</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>3.06486728056141E-7</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>5.53278695320486E-7</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>8.5282165698524904E-7</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25">
         <v>5.16461892115035E-7</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <v>3.9427841213725599E-7</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25">
         <v>8.9300938985356498E-7</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25">
         <v>-1.2357882329085201E-6</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
         <v>6.7395065319852796E-7</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25">
         <v>-1.61774402668675E-7</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25">
         <v>-3.61958230362376E-8</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25">
         <v>4.7473035696477798E-7</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25">
         <v>-1.8354944951393201E-7</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25">
         <v>1.8587306084185799E-6</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25">
         <v>4.9414415316907899E-6</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25">
         <v>-1.9517350067561901E-7</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25">
         <v>-6.6440978949266494E-8</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25">
         <v>7.5522292736993501E-7</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25">
         <v>2.4097193566448602E-7</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25">
         <v>-2.40459876723088E-9</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25">
         <v>7.7512896580191106E-8</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25">
         <v>6.4941020625719398E-7</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25">
         <v>-7.0566310812153796E-8</v>
       </c>
     </row>
@@ -10803,100 +10800,100 @@
       <c r="B26">
         <v>2.01301482639277E-2</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-3.8189119921148097E-6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>-2.6493450016881399E-8</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>-1.53151041061319E-7</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>-3.0073785949358798E-8</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>4.06238018540472E-8</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>8.4200668757583106E-8</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>-3.4476243727414398E-7</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>2.05443624169113E-7</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>2.3078843000901999E-7</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>1.7104640583980299E-7</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>1.9418246432196601E-7</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>2.4814535619363999E-7</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <v>1.7746306172681601E-7</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>1.71506248081223E-7</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <v>1.7925189514406801E-7</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26">
         <v>1.0976898466316701E-7</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26">
         <v>6.8340258939005596E-8</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26">
         <v>2.18460842601204E-7</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26">
         <v>7.5129537013947906E-8</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26">
         <v>6.8557064786772403E-9</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26">
         <v>9.2826095008579194E-9</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26">
         <v>-6.6411036923589097E-9</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26">
         <v>6.9342077979114496E-7</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26">
         <v>-1.9517350067562901E-7</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26">
         <v>9.3766684276905606E-8</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26">
         <v>3.6815681007849399E-8</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26">
         <v>-1.2690332901381501E-7</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26">
         <v>-7.4912842763633292E-9</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AE26">
         <v>4.29304987724708E-11</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26">
         <v>-1.8824578309916899E-7</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26">
         <v>-1.09038118104031E-7</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH26">
         <v>-1.21044477417085E-8</v>
       </c>
     </row>
@@ -10907,100 +10904,100 @@
       <c r="B27">
         <v>7.16493294266777E-3</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>-3.5238485772182901E-6</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>-1.24768538244829E-8</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>-7.6753348982897499E-8</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>-4.9815583027498298E-9</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>6.5134155412349693E-8</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>9.5307513946974807E-9</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>-6.5725848535966301E-7</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>2.02220978899811E-9</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>5.0720480726397603E-8</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>2.90504866658497E-8</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>2.05666818490195E-8</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>2.47923901527721E-8</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27">
         <v>-5.3772895194151099E-8</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27">
         <v>-2.7063262812255799E-8</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27">
         <v>1.81839935421714E-8</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27">
         <v>7.8710069600486598E-8</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27">
         <v>-3.4249139208771803E-8</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27">
         <v>9.5855420369615302E-8</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27">
         <v>-3.3119191116325402E-8</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27">
         <v>-6.2982182371757797E-8</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27">
         <v>-1.0527572201419001E-7</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27">
         <v>-1.2318623632214199E-7</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27">
         <v>1.1207365661578399E-6</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z27">
         <v>-6.6440978949264006E-8</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA27">
         <v>3.6815681007848301E-8</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB27">
         <v>1.00714798035429E-7</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27">
         <v>-1.2679836154417E-7</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AD27">
         <v>-2.7693797655342001E-8</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AE27">
         <v>3.4646528944868402E-10</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AF27">
         <v>-2.36675957933228E-8</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AG27">
         <v>2.8092791984931101E-8</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AH27">
         <v>-1.21850168715562E-8</v>
       </c>
     </row>
@@ -11011,100 +11008,100 @@
       <c r="B28">
         <v>-5.99534492489847E-2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>-1.3301155538639099E-5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1.35435743620721E-6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>-2.4175318025154401E-7</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>1.1782798012261501E-6</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>4.6076435741177499E-6</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>-2.24759454671174E-6</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>8.5911323567144101E-7</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>1.84357725908093E-6</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>2.2725921120124698E-6</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>1.4495314885118799E-6</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>2.02944748322784E-6</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>1.6312174618831399E-6</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>2.4584477801171901E-6</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>2.0478927421661202E-6</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28">
         <v>1.8040483408616699E-6</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28">
         <v>4.6912928415985601E-6</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28">
         <v>3.1734659331674001E-6</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28">
         <v>1.5898395581141601E-6</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28">
         <v>-4.01879205830184E-7</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28">
         <v>2.1577913603495301E-7</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28">
         <v>8.6611408308514498E-8</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28">
         <v>-9.6726758566297108E-7</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y28">
         <v>-3.6254441963084198E-6</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z28">
         <v>7.5522292736994295E-7</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA28">
         <v>-1.26903329013808E-7</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28">
         <v>-1.26798361544171E-7</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AC28">
         <v>2.4924932817060398E-5</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28">
         <v>2.59455347216824E-7</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AE28">
         <v>-3.1796893782785399E-9</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AF28">
         <v>-2.2665659084100701E-7</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AG28">
         <v>1.8170859514462501E-6</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AH28">
         <v>6.5177522631869098E-8</v>
       </c>
     </row>
@@ -11115,100 +11112,100 @@
       <c r="B29">
         <v>-4.6380836978946599E-2</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>-1.9677543241365999E-5</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>6.7269309566264804E-7</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>-3.3285712669502498E-7</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>4.0132334670240103E-6</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>7.7648657728249598E-7</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>1.8948794793307501E-7</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>2.0422650352176101E-7</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>6.4340084340771597E-7</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>4.6549700271333998E-7</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>3.3029645320159398E-7</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>3.9426027570874902E-7</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>4.5793975568180498E-7</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>5.24565193867729E-7</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>6.1582924372152499E-7</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <v>5.8475606771131305E-7</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29">
         <v>9.0524756012951004E-7</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29">
         <v>4.3959551857275901E-7</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29">
         <v>3.7433409006447001E-7</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29">
         <v>-1.6481930053691499E-8</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29">
         <v>5.86159813532974E-8</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29">
         <v>1.3999869978138199E-7</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29">
         <v>1.2737929057033599E-7</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29">
         <v>-1.34732892126723E-6</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29">
         <v>2.4097193566452201E-7</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29">
         <v>-7.4912842763557705E-9</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB29">
         <v>-2.76937976553363E-8</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29">
         <v>2.5945534721681701E-7</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AD29">
         <v>7.5259074341892999E-7</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AE29">
         <v>-7.0239188062438698E-9</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AF29">
         <v>2.29328909013609E-7</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AG29">
         <v>5.8379352473802302E-7</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AH29">
         <v>-1.66024769990004E-8</v>
       </c>
     </row>
@@ -11219,100 +11216,100 @@
       <c r="B30">
         <v>4.9720552221008E-4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>1.8052062436881399E-7</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>-8.1821987490094096E-9</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>5.4498268729353597E-10</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>-3.3557639796475902E-8</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>-1.09714051319054E-8</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>-5.7467821383715305E-10</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>-1.7287172242882301E-9</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>-6.0955973336856602E-9</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>-4.2833104750102301E-9</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>-3.4683121771568501E-9</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>-3.53354871846716E-9</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>-4.0186767375601902E-9</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>-5.8232901875402596E-9</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>-6.3850163278160103E-9</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <v>-5.79783456395136E-9</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30">
         <v>-8.5645655317779495E-9</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30">
         <v>-4.6000005859239304E-9</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30">
         <v>-2.8918285311259101E-9</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30">
         <v>2.5929136836027702E-10</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30">
         <v>-3.60545204792587E-10</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30">
         <v>-1.2453464983220701E-9</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30">
         <v>-1.46295495020201E-9</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30">
         <v>1.4353973201632E-8</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z30">
         <v>-2.4045987672307898E-9</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA30">
         <v>4.2930498772425202E-11</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB30">
         <v>3.4646528944868402E-10</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30">
         <v>-3.1796893782784898E-9</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AD30">
         <v>-7.0239188062433801E-9</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AE30">
         <v>6.8710086458683397E-11</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AF30">
         <v>-2.4801678069113399E-9</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AG30">
         <v>-1.05030765235753E-8</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AH30">
         <v>-1.3441718551676401E-10</v>
       </c>
     </row>
@@ -11323,100 +11320,100 @@
       <c r="B31">
         <v>-8.1179037919344901E-2</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>-1.7266258936258699E-5</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>-3.0613888178360397E-7</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>1.5514266865006E-6</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>-2.8169617767972301E-6</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>-7.46018863334719E-7</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>-1.8611785519780199E-6</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>1.62320344229298E-6</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>-1.15453402619905E-5</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>-9.7920859482777905E-6</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>-7.2498763031206801E-6</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>-1.08843669288732E-5</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>-9.7415578457560306E-6</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31">
         <v>-8.1818551630872601E-6</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31">
         <v>-8.3198102291944594E-6</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
         <v>-9.6405349722301902E-6</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31">
         <v>-7.7864843444340594E-6</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31">
         <v>-8.7811375477692199E-6</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31">
         <v>-9.3880121226136198E-6</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31">
         <v>-1.35870913122309E-6</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31">
         <v>-6.7742584410738198E-7</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31">
         <v>1.1110256046559399E-6</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31">
         <v>3.04446449910702E-6</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y31">
         <v>-2.1168327388319301E-6</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z31">
         <v>7.7512896580244906E-8</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA31">
         <v>-1.8824578309919E-7</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB31">
         <v>-2.3667595793352301E-8</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC31">
         <v>-2.2665659084097601E-7</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD31">
         <v>2.2932890901357499E-7</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AE31">
         <v>-2.4801678069118499E-9</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AF31">
         <v>3.2568836037163697E-5</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AG31">
         <v>2.27777576653236E-5</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AH31">
         <v>3.0463769675704402E-7</v>
       </c>
     </row>
@@ -11427,100 +11424,100 @@
       <c r="B32">
         <v>-0.110929401829944</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>-4.2268698706387502E-5</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>1.2156768071372899E-7</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>6.1187081179091197E-6</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>-2.4270011545885498E-6</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>-1.2774119799668099E-7</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>-1.06237228425932E-6</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>1.42799030449786E-6</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>-8.0959748034466992E-6</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>-6.8960923930997404E-6</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>-6.47570271287121E-6</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>-7.53729688370008E-6</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>-7.9010949597431999E-6</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32">
         <v>-5.5966310587325197E-6</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32">
         <v>-5.4381127988071001E-6</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32">
         <v>-5.5200756343761896E-6</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32">
         <v>-9.2605270155938607E-6</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32">
         <v>-3.3886225885089298E-6</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32">
         <v>-1.1017700838551199E-5</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32">
         <v>1.7505824442593201E-6</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32">
         <v>3.6500168200427699E-6</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32">
         <v>6.5030184288654904E-6</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32">
         <v>9.4736197896055997E-6</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y32">
         <v>2.33849750548503E-7</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z32">
         <v>6.4941020625726799E-7</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AA32">
         <v>-1.09038118104041E-7</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AB32">
         <v>2.8092791984916301E-8</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32">
         <v>1.81708595144631E-6</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AD32">
         <v>5.8379352473805299E-7</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AE32">
         <v>-1.05030765235765E-8</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AF32">
         <v>2.2777757665323699E-5</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AG32">
         <v>6.6109198225657406E-5</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AH32">
         <v>7.5701423572371002E-7</v>
       </c>
     </row>
@@ -11531,100 +11528,100 @@
       <c r="B33">
         <v>-1.6966585530186299E-4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>-4.9277747548195596E-6</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>2.46786028563854E-7</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>-6.5780876088900898E-8</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>-3.9446657144965698E-7</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>7.2184138280688498E-8</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>-1.9765901244500001E-7</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>5.4735423894830202E-8</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>-2.9529291982240302E-7</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>-9.9060284980031704E-8</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>-6.1534999529291497E-8</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>-2.5297241829422802E-7</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>-2.6561260173062301E-7</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33">
         <v>1.7593940634244999E-8</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>-8.1553365672032304E-8</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
         <v>-2.75068395973177E-7</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33">
         <v>1.51972853560008E-7</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33">
         <v>-6.8918506693150994E-8</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33">
         <v>-8.9374874272933601E-8</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33">
         <v>-2.1146652760148199E-7</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V33">
         <v>-2.1193024614441201E-7</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33">
         <v>-7.7047851803435306E-8</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33">
         <v>-1.2572114713102501E-7</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y33">
         <v>1.93544812351829E-8</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z33">
         <v>-7.0566310812151202E-8</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AA33">
         <v>-1.21044477417056E-8</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AB33">
         <v>-1.21850168715569E-8</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AC33">
         <v>6.5177522631871004E-8</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AD33">
         <v>-1.6602476998999401E-8</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AE33">
         <v>-1.34417185516988E-10</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AF33">
         <v>3.0463769675707001E-7</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AG33">
         <v>7.5701423572372802E-7</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AH33">
         <v>5.4353754492634699E-7</v>
       </c>
     </row>
@@ -11679,10 +11676,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-0.11076762113873</v>
+        <v>-0.104268458083628</v>
       </c>
       <c r="C2">
-        <v>2.0223802074098001E-3</v>
+        <v>2.08254814417314E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11711,13 +11708,13 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>6.3266020937757295E-2</v>
+        <v>4.7545309147170402E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.56250902857239E-3</v>
+        <v>1.58509715165359E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -11743,7 +11740,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-9.8820988460123105E-2</v>
+        <v>-8.4688919955804201E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11752,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.6257927780838995E-4</v>
+        <v>6.9063192545085899E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11775,7 +11772,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.12139148205092</v>
+        <v>-0.14128788739527501</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11787,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.8728549273535495E-4</v>
+        <v>8.4413164058314396E-4</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -11807,7 +11804,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-2.32055620341589E-2</v>
+        <v>-8.01559142718066E-2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11822,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7.4737136817052698E-4</v>
+        <v>9.9302707671454992E-4</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -11839,7 +11836,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-7.6132004253351093E-2</v>
+        <v>-0.114247431380457</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11857,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.6509584611230005E-4</v>
+        <v>9.7547237546313E-4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -11871,7 +11868,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>1.5819932504678402E-2</v>
+        <v>-9.07856479815272E-3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -11892,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.7166112108911501E-4</v>
+        <v>2.72939551202962E-4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11903,7 +11900,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-9.38442868103531E-3</v>
+        <v>5.8837267400241597E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11927,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.35022178587582E-4</v>
+        <v>1.8565230967818299E-4</v>
       </c>
     </row>
   </sheetData>
@@ -11981,10 +11978,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-0.26507646795421103</v>
+        <v>-0.24974629169884</v>
       </c>
       <c r="C2">
-        <v>3.7447376220509001E-3</v>
+        <v>3.8820081237897499E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -12013,13 +12010,13 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>7.1539331925600996E-2</v>
+        <v>4.56278095398477E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.6970493914157301E-3</v>
+        <v>2.71656409468029E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -12045,7 +12042,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.399959896123883</v>
+        <v>-0.38000054772123099</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12054,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.3484576024716398E-3</v>
+        <v>2.39672123854441E-3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12077,7 +12074,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.158498024238067</v>
+        <v>-0.14888778267656899</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12089,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.07535081557789E-3</v>
+        <v>1.3126140535323599E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -12109,7 +12106,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-9.2156006269101101E-2</v>
+        <v>-0.19983324866302801</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -12124,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.20947724688941E-3</v>
+        <v>1.51746854789051E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12141,7 +12138,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-0.132290637087145</v>
+        <v>-0.16581620375849801</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -12159,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.3260278273123499E-3</v>
+        <v>1.5492062011097901E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -12173,7 +12170,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>3.5785787286208501E-2</v>
+        <v>5.79073777457837E-3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -12194,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.9603798801438901E-4</v>
+        <v>2.9668717070747302E-4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -12205,7 +12202,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-3.7103433665207297E-2</v>
+        <v>-2.24770775051913E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -12229,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.8401329473296399E-4</v>
+        <v>2.4672527979899901E-4</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_wellbeing.xlsx
+++ b/input/reg_wellbeing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0E0ABAC9-582B-47C8-8A27-6E528F15610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UK_DWB_MCS1" sheetId="1" r:id="rId1"/>
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,14 +485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -695,7 +694,7 @@
         <v>-1.9723185230582601E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -796,7 +795,7 @@
         <v>1.3836329181586601E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -897,7 +896,7 @@
         <v>-1.13840152293203E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -998,7 +997,7 @@
         <v>-1.0677004733819E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>2.18686566012677E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>-1.01978799024498E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>8.2335292115976103E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>-1.00174897709327E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>-4.7544781176313903E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>-4.9584102760973099E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>-2.1505967285745799E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>7.7656685937334398E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>-1.3213652434241101E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>-1.17086417374829E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>-1.5994575232654701E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>-6.0273609124951701E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>1.9126692962329499E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>2.79838915641631E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>-3.3565124295039499E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>2.7335548228489102E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>1.1907039003452901E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>2.34870277935497E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>-1.02300963338851E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>-1.1855125027186299E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>-4.3406424137561998E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>5.8653743479097396E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>-2.2221399140973902E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>5.3189045498413903E-9</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>1.0087059950724999E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>3.1108388733936799E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3732,14 +3731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3771,15 +3770,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-1.23806789329217</v>
+        <v>-1.23056636431974</v>
       </c>
       <c r="C2">
-        <v>0.100317399280766</v>
+        <v>0.103445250024589</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3803,18 +3802,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>1.38780817937347</v>
+        <v>1.4441139064634101</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.2452422154303203E-2</v>
+        <v>6.6087181550199103E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3835,12 +3834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.49963604315453097</v>
+        <v>-0.58348744071858405</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3849,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.9542474928700799E-2</v>
+        <v>3.2081096346227099E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3867,12 +3866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.51154713626928605</v>
+        <v>-0.25042214934580498</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3884,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.40532914727543E-2</v>
+        <v>4.6389313542080403E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3899,12 +3898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.78101737192389997</v>
+        <v>-0.86343025909766202</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3919,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.2664867152636801E-2</v>
+        <v>6.3548920856129704E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3931,12 +3930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-1.0503607552260401</v>
+        <v>-1.0891121745363399</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3954,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.4191386752414699E-2</v>
+        <v>6.8177272558643906E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3963,12 +3962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>4.5693204959426303E-2</v>
+        <v>2.5702068477583499E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3989,18 +3988,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.1409961826623899E-2</v>
+        <v>1.5105874110923199E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-5.7247904366527297E-2</v>
+        <v>-0.16470758086589499</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4024,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.12906050160302E-3</v>
+        <v>1.1374621686648E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4034,14 +4033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4073,15 +4072,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-1.3489837784547301</v>
+        <v>-1.4228190123050499</v>
       </c>
       <c r="C2">
-        <v>0.17928898418012101</v>
+        <v>0.209206184901087</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4105,18 +4104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.98956760678125599</v>
+        <v>1.0307197943903601</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.2726005601726105E-2</v>
+        <v>9.4849755363602295E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4137,12 +4136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-1.43604891505004</v>
+        <v>-1.3672336758516399</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4151,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.100404428441737</v>
+        <v>0.117003284367741</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4169,12 +4168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.47926807711235803</v>
+        <v>-0.46015958776090499</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4186,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.9184064925410401E-2</v>
+        <v>7.2503426898626294E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4201,12 +4200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.80900137986986498</v>
+        <v>-0.70629664050724295</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4221,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.0931848179205599E-2</v>
+        <v>9.82289801979849E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4233,12 +4232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-1.15688027451275</v>
+        <v>-1.2474728694726001</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4256,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.4210585629514506E-2</v>
+        <v>0.12303306255009799</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4265,12 +4264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>4.85504102712042E-2</v>
+        <v>-9.5896950946945704E-3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4291,18 +4290,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.11826572333184E-2</v>
+        <v>1.57236914292413E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-0.114053804257953</v>
+        <v>-0.20401663530286501</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4326,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.0062602331598893E-3</v>
+        <v>1.33149079995976E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4336,14 +4335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>-3.22353089562766E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>6.51136105938806E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>-3.30841592971335E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>-1.28898419618566E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>4.6837978312524999E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>-4.3895321905892801E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>-2.6877392186348401E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>4.1651721326816596E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>1.1598103721003699E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>-4.9879597895279201E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>1.75634573887513E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>3.0893105458824701E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>1.06853589173559E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>9.0893521624009207E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>-5.5335189416960701E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>1.12778457131741E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>4.6632850064481498E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>2.2734437963314201E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>2.8917822788941702E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>2.3349501290151199E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>4.7055002298796301E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>4.16440754957529E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>-2.52036125994811E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>1.68543195022551E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>-4.88902804158497E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>3.7696942795328101E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>1.5919460882134401E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>-2.76987864498321E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>6.1789356308933404E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>3.5831306169954898E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -7582,14 +7581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7621,15 +7620,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.138867401324514</v>
+        <v>0.14473670251260101</v>
       </c>
       <c r="C2">
-        <v>5.9835053773966598E-2</v>
+        <v>6.1273226234816798E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7653,18 +7652,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.76773466344977703</v>
+        <v>0.72398980017675996</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.3234095266133601E-2</v>
+        <v>4.2677456089765899E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7685,12 +7684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.444053796232038</v>
+        <v>-0.40805728765892602</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7699,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.4933085982321499E-2</v>
+        <v>2.5804704114682799E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7717,12 +7716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.53680560242889996</v>
+        <v>-0.64786512215603698</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7734,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.1293859954548101E-2</v>
+        <v>3.7210638363925901E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -7749,12 +7748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.626136313856266</v>
+        <v>-0.52790238319098104</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7769,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.5297832724010799E-2</v>
+        <v>5.2968602686544401E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7781,12 +7780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-0.27959805032469298</v>
+        <v>-0.71118265552130999</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7804,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.5463153788865E-2</v>
+        <v>5.4453392923858999E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -7813,12 +7812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>-0.12219813346464201</v>
+        <v>3.5313846726256898E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7839,18 +7838,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.09087261565764E-2</v>
+        <v>1.0665778176003801E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.122167871893469</v>
+        <v>0.14230834922964999</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7874,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.1106471538351403E-3</v>
+        <v>8.1244931188861596E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7884,14 +7883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7923,15 +7922,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>1.13375308945563</v>
+        <v>0.96700780202930603</v>
       </c>
       <c r="C2">
-        <v>0.108453698235043</v>
+        <v>0.11319861709536</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7955,18 +7954,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>-0.12216290847771701</v>
+        <v>-8.7236005864526206E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.7465493336152996E-2</v>
+        <v>7.3896310888152197E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7987,12 +7986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.25508933358576602</v>
+        <v>-0.32979624167820298</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8001,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.1338870659180403E-2</v>
+        <v>7.8297133540976296E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -8019,12 +8018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.74865421560811196</v>
+        <v>-0.72965074119122597</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8036,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.3817315585549403E-2</v>
+        <v>5.8308252125873698E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -8051,12 +8050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-1.19885571142589</v>
+        <v>-0.70814708182476604</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8071,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.1501350904321697E-2</v>
+        <v>7.6068346940108E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8083,12 +8082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-1.1583925593992901</v>
+        <v>-1.0288942592311801</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8106,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.3807604004587903E-2</v>
+        <v>8.2842310652720505E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8115,12 +8114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>-0.102258528057334</v>
+        <v>-9.5008964591471401E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8141,18 +8140,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.5802608911340703E-3</v>
+        <v>9.8134737056849008E-3</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>8.6042401206758198E-2</v>
+        <v>6.1434528696179998E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8176,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.136880693175E-3</v>
+        <v>8.7577694998627904E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8186,14 +8185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>-4.9277747548168296E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>2.4678602856380201E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>-6.5780876088898396E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>-3.9446657144982999E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>7.2184138280628094E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8921,7 +8920,7 @@
         <v>-1.9765901244502201E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>5.4735423894817602E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>-2.9529291982246602E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>-9.9060284980097005E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>-6.1534999529330898E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>-2.5297241829426502E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>-2.6561260173068902E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -9649,7 +9648,7 @@
         <v>1.75939406341646E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>-8.15533656720696E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>-2.7506839597320802E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>1.51972853559985E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -10065,7 +10064,7 @@
         <v>-6.8918506693187602E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -10169,7 +10168,7 @@
         <v>-8.9374874272991503E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>-2.1146652760150401E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -10377,7 +10376,7 @@
         <v>-2.1193024614442699E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>-7.7047851803442506E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>-1.2572114713105301E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>1.9354481235019499E-8</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>-7.0566310812153796E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>-1.21044477417085E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>-1.21850168715562E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -11105,7 +11104,7 @@
         <v>6.5177522631869098E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>-1.66024769990004E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>-1.3441718551676401E-10</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>3.0463769675704402E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>7.5701423572371002E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -11632,14 +11631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11671,15 +11670,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-0.104268458083628</v>
+        <v>-9.9638023612954804E-2</v>
       </c>
       <c r="C2">
-        <v>2.08254814417314E-3</v>
+        <v>2.1877917000088401E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11703,18 +11702,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>4.7545309147170402E-2</v>
+        <v>6.12046933064666E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.58509715165359E-3</v>
+        <v>1.7090782019972899E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -11735,12 +11734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-8.4688919955804201E-2</v>
+        <v>-7.9217973407544703E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11749,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.9063192545085899E-4</v>
+        <v>7.6124667237600896E-4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -11767,12 +11766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.14128788739527501</v>
+        <v>-0.13470996687658601</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11784,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8.4413164058314396E-4</v>
+        <v>1.2411083062172201E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -11799,12 +11798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-8.01559142718066E-2</v>
+        <v>-0.115184567399258</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11819,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.9302707671454992E-4</v>
+        <v>1.44347865994554E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -11831,12 +11830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-0.114247431380457</v>
+        <v>-0.153507417191036</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11854,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.7547237546313E-4</v>
+        <v>1.50291263094377E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -11863,12 +11862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>-9.07856479815272E-3</v>
+        <v>-1.21940132240634E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -11889,18 +11888,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.72939551202962E-4</v>
+        <v>3.6956120195602002E-4</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>5.8837267400241597E-3</v>
+        <v>-1.61707100239993E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11924,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.8565230967818299E-4</v>
+        <v>2.5383801812351998E-4</v>
       </c>
     </row>
   </sheetData>
@@ -11934,14 +11933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11973,15 +11972,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>-0.24974629169884</v>
+        <v>-0.241099051541424</v>
       </c>
       <c r="C2">
-        <v>3.8820081237897499E-3</v>
+        <v>4.4857959823730101E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -12005,18 +12004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
-        <v>4.56278095398477E-2</v>
+        <v>7.2105821167758502E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.71656409468029E-3</v>
+        <v>3.1340383658325301E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -12037,12 +12036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>-0.38000054772123099</v>
+        <v>-0.33578763811511397</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12051,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.39672123854441E-3</v>
+        <v>2.6440006564389502E-3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12069,12 +12068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-0.14888778267656899</v>
+        <v>-0.141027262742555</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12086,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.3126140535323599E-3</v>
+        <v>1.91969597551501E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -12101,12 +12100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>-0.19983324866302801</v>
+        <v>-0.185338761984772</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -12121,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.51746854789051E-3</v>
+        <v>2.2383139962641502E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -12133,12 +12132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7">
-        <v>-0.16581620375849801</v>
+        <v>-0.172122215639476</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -12156,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.5492062011097901E-3</v>
+        <v>2.3839546743497902E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -12165,12 +12164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>5.79073777457837E-3</v>
+        <v>7.0854464583095999E-3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -12191,18 +12190,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.9668717070747302E-4</v>
+        <v>3.9984848987148697E-4</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>-2.24770775051913E-2</v>
+        <v>-4.36990950739094E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -12226,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.4672527979899901E-4</v>
+        <v>3.6007712287628498E-4</v>
       </c>
     </row>
   </sheetData>
